--- a/src/pedon/datasets/Staring_2001.xlsx
+++ b/src/pedon/datasets/Staring_2001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vonkm\Documents\GitHub\pedon\src\pedon\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B67545-55FD-4F4A-A6D1-7F5609FD54C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E194D885-98A3-487F-A93D-FCA574E8D9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -336,6 +336,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -410,6 +413,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,25 +728,25 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="A1:J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26171875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.26171875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -768,7 +778,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -800,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -832,7 +842,7 @@
         <v>-1.06</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -864,7 +874,7 @@
         <v>-0.215</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -896,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -928,7 +938,7 @@
         <v>-0.35899999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -960,7 +970,7 @@
         <v>-1.7470000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -992,7 +1002,7 @@
         <v>-0.80200000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1034,7 @@
         <v>-2.2440000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1056,7 +1066,7 @@
         <v>-2.161</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1088,7 +1098,7 @@
         <v>-3.8839999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1120,7 +1130,7 @@
         <v>-5.9009999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1152,7 +1162,7 @@
         <v>-5.681</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1184,7 +1194,7 @@
         <v>-1.4970000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1216,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1248,7 +1258,7 @@
         <v>-1.476</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1280,7 +1290,7 @@
         <v>-2.2589999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1312,7 +1322,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1344,7 +1354,7 @@
         <v>-1.845</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1376,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1408,7 +1418,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1440,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1472,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1504,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1536,7 +1546,7 @@
         <v>-1.33</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1568,7 +1578,7 @@
         <v>-2.0230000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1600,7 +1610,7 @@
         <v>-0.80300000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1632,7 +1642,7 @@
         <v>-1.3819999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1664,7 +1674,7 @@
         <v>-1.879</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1696,7 +1706,7 @@
         <v>-1.3839999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -1728,7 +1738,7 @@
         <v>-4.2949999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1760,7 +1770,7 @@
         <v>-5.9550000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1792,7 +1802,7 @@
         <v>-0.29199999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1824,7 +1834,7 @@
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -1856,7 +1866,7 @@
         <v>-1.411</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -1888,7 +1898,7 @@
         <v>-1.5920000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -1936,20 +1946,20 @@
       <selection activeCell="B2" sqref="A1:P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13.578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +2009,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -2043,7 +2053,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2087,7 +2097,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -2131,7 +2141,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2175,7 +2185,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -2213,7 +2223,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2257,7 +2267,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -2292,7 +2302,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -2327,7 +2337,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
@@ -2362,7 +2372,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -2397,7 +2407,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -2432,7 +2442,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -2467,7 +2477,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -2502,7 +2512,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -2537,7 +2547,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -2572,7 +2582,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -2607,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -2642,7 +2652,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -2677,7 +2687,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -2721,7 +2731,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -2765,7 +2775,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -2809,7 +2819,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -2853,7 +2863,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -2891,7 +2901,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2935,7 +2945,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -2979,7 +2989,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -3014,7 +3024,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -3049,7 +3059,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -3084,7 +3094,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -3119,7 +3129,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -3154,7 +3164,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -3189,7 +3199,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -3224,7 +3234,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -3259,7 +3269,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
@@ -3288,7 +3298,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -3317,7 +3327,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
@@ -3356,20 +3366,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O73"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.15625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="11.15625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3416,3387 +3429,3406 @@
         <v>-16000</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="11">
         <v>23.41</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="11">
         <v>11.38</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="11">
         <v>6.04</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="11">
         <v>3.13</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="11">
         <v>1.1399999999999999</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="12">
         <v>0.16</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="12">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="12">
         <v>6.4999999999999997E-4</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="12">
         <v>5.3999999999999998E-5</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="12">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="12">
         <v>1.6E-7</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="12">
         <v>1.4E-8</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="12">
         <v>2.6000000000000001E-9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="11">
         <v>0.43</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="11">
         <v>0.41699999999999998</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="11">
         <v>0.39100000000000001</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="11">
         <v>0.35599999999999998</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="11">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="11">
         <v>0.21</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="11">
         <v>0.11799999999999999</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="11">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="11">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="11">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="11">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="11">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="11">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="11">
         <v>12.52</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="11">
         <v>3.18</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="11">
         <v>1.57</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="11">
         <v>0.85</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="11">
         <v>0.38</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="12">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="12">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="12">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="12">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="12">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="12">
         <v>7.3000000000000004E-6</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="12">
         <v>1.3E-6</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="12">
         <v>4.2E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="11">
         <v>0.42</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="11">
         <v>0.40200000000000002</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="11">
         <v>0.377</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="11">
         <v>0.35</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="11">
         <v>0.311</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="11">
         <v>0.248</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="11">
         <v>0.17199999999999999</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="11">
         <v>0.13</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="11">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="11">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="11">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="11">
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="11">
         <v>15.42</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="11">
         <v>6.56</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="11">
         <v>4.05</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="11">
         <v>2.58</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="11">
         <v>1.33</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="12">
         <v>0.35</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="12">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="12">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="12">
         <v>6.8999999999999997E-4</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="12">
         <v>4.6999999999999997E-5</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="12">
         <v>6.1E-6</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="12">
         <v>7.8999999999999995E-7</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="12">
         <v>1.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="11">
         <v>0.46</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="11">
         <v>0.45200000000000001</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="11">
         <v>0.439</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="11">
         <v>0.42299999999999999</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="11">
         <v>0.39300000000000002</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="11">
         <v>0.32900000000000001</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="11">
         <v>0.23200000000000001</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="11">
         <v>0.17100000000000001</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="11">
         <v>0.125</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="11">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="11">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="11">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="11">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="11">
         <v>29.22</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="11">
         <v>8.49</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="11">
         <v>4.8600000000000003</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="11">
         <v>2.97</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="11">
         <v>1.48</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="12">
         <v>0.4</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="12">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="12">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="12">
         <v>1E-3</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="12">
         <v>8.1000000000000004E-5</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="12">
         <v>1.2E-5</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="12">
         <v>1.7E-6</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="12">
         <v>4.4000000000000002E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="11">
         <v>0.46</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="11">
         <v>0.45100000000000001</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="11">
         <v>0.438</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="11">
         <v>0.42299999999999999</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="11">
         <v>0.39700000000000002</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="11">
         <v>0.34499999999999997</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="11">
         <v>0.26300000000000001</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="11">
         <v>0.20799999999999999</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="11">
         <v>0.16300000000000001</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="11">
         <v>0.11899999999999999</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="11">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="11">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="11">
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="11">
         <v>52.91</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="11">
         <v>17.54</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="11">
         <v>5.97</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="11">
         <v>2.14</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="11">
         <v>0.54</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="12">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="12">
         <v>2.3E-3</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="12">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="12">
         <v>1.8E-5</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="12">
         <v>6.8999999999999996E-7</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="12">
         <v>5.9999999999999995E-8</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="12">
         <v>5.2000000000000002E-9</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="12">
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="11">
         <v>0.36</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="11">
         <v>0.32900000000000001</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="11">
         <v>0.27200000000000002</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="11">
         <v>0.219</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="11">
         <v>0.159</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="11">
         <v>9.4E-2</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="11">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="11">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="11">
         <v>0.02</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="11">
         <v>1.4E-2</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="11">
         <v>1.2E-2</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="11">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="11">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="4">
-        <v>10069</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1084</v>
-      </c>
-      <c r="E12" s="4">
-        <v>559</v>
-      </c>
-      <c r="F12" s="4">
-        <v>331</v>
-      </c>
-      <c r="G12" s="4">
-        <v>169</v>
-      </c>
-      <c r="H12" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0.99</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="K12" s="5">
-        <v>6.2E-2</v>
-      </c>
-      <c r="L12" s="5">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="M12" s="5">
-        <v>2.3E-3</v>
-      </c>
-      <c r="N12" s="5">
-        <v>5.4000000000000001E-4</v>
-      </c>
-      <c r="O12" s="5">
-        <v>2.1000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="11">
+        <v>100.69</v>
+      </c>
+      <c r="D12" s="11">
+        <v>10.84</v>
+      </c>
+      <c r="E12" s="11">
+        <v>5.59</v>
+      </c>
+      <c r="F12" s="11">
+        <v>3.31</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1.69</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="I12" s="12">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J12" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K12" s="12">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="L12" s="12">
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="M12" s="12">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="N12" s="12">
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="O12" s="12">
+        <v>2.0999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="11">
         <v>0.38</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="11">
         <v>0.37</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="11">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="11">
         <v>0.34699999999999998</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="11">
         <v>0.33</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="11">
         <v>0.29799999999999999</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="11">
         <v>0.251</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="11">
         <v>0.217</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="11">
         <v>0.186</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="11">
         <v>0.152</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="11">
         <v>0.13100000000000001</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="11">
         <v>0.112</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="11">
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="11">
         <v>14.07</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="11">
         <v>1.78</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="11">
         <v>0.93</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="11">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="11">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="11">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="11">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="11">
         <v>7.3999999999999996E-5</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="11">
         <v>1.5E-5</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="11">
         <v>3.1E-6</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="11">
         <v>0.4</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="11">
         <v>0.39</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="11">
         <v>0.379</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="11">
         <v>0.36699999999999999</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="11">
         <v>0.35</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="11">
         <v>0.315</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="11">
         <v>0.26300000000000001</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="11">
         <v>0.224</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="11">
         <v>0.19</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="11">
         <v>0.151</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="11">
         <v>0.127</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="11">
         <v>0.107</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="11">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="11">
         <v>2.36</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="11">
         <v>0.59</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="11">
         <v>0.38</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="11">
         <v>0.27</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="11">
         <v>0.17</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="11">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="11">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="11">
         <v>1.4E-3</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="11">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="11">
         <v>6.3E-5</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="11">
         <v>1.7E-5</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="11">
         <v>6.7000000000000002E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="11">
         <v>0.43</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="11">
         <v>0.42499999999999999</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="11">
         <v>0.41899999999999998</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="11">
         <v>0.41199999999999998</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="11">
         <v>0.39900000000000002</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="11">
         <v>0.37</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="11">
         <v>0.314</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="11">
         <v>0.26800000000000002</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="11">
         <v>0.22500000000000001</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="11">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="11">
         <v>0.14599999999999999</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="11">
         <v>0.122</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="11">
         <v>0.108</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="11">
         <v>1.54</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="11">
         <v>0.39</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="11">
         <v>0.2</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="11">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="11">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="11">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="11">
         <v>2.3E-3</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="11">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="11">
         <v>1E-4</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="11">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="11">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="11">
         <v>0.43</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="11">
         <v>0.42699999999999999</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="11">
         <v>0.42299999999999999</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="11">
         <v>0.41799999999999998</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="11">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="11">
         <v>0.38500000000000001</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="11">
         <v>0.33100000000000002</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="11">
         <v>0.22900000000000001</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="11">
         <v>0.17299999999999999</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="11">
         <v>0.13800000000000001</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="11">
         <v>0.111</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="11">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="11">
         <v>0.7</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="11">
         <v>0.1</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="11">
         <v>0.05</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="11">
         <v>2.4E-2</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="11">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="11">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="11">
         <v>1E-3</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="11">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="11">
         <v>8.1000000000000004E-5</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="11">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="11">
         <v>1.2999999999999999E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="11">
         <v>0.43</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="11">
         <v>0.42699999999999999</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="11">
         <v>0.42399999999999999</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="11">
         <v>0.42</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="11">
         <v>0.41399999999999998</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="11">
         <v>0.39800000000000002</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="11">
         <v>0.36199999999999999</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="11">
         <v>0.32700000000000001</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="11">
         <v>0.28899999999999998</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="11">
         <v>0.24299999999999999</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="11">
         <v>0.21199999999999999</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="11">
         <v>0.185</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="11">
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="11">
         <v>4.53</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="11">
         <v>0.15</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="11">
         <v>0.08</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="11">
         <v>0.05</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="11">
         <v>0.03</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="11">
         <v>1.2E-2</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="11">
         <v>3.3E-3</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="11">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="11">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="11">
         <v>9.5000000000000005E-5</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="11">
         <v>3.1999999999999999E-5</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="11">
         <v>1.1E-5</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="11">
         <v>5.2000000000000002E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="11">
         <v>0.59</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="11">
         <v>0.58099999999999996</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="11">
         <v>0.57299999999999995</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="11">
         <v>0.56499999999999995</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="11">
         <v>0.55300000000000005</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="11">
         <v>0.52900000000000003</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="11">
         <v>0.49</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="11">
         <v>0.45900000000000002</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="11">
         <v>0.42799999999999999</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="11">
         <v>0.38900000000000001</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="11">
         <v>0.36199999999999999</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="11">
         <v>0.33600000000000002</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="11">
         <v>0.32</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="11">
         <v>5.37</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="11">
         <v>0.12</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="11">
         <v>0.06</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="11">
         <v>0.04</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="11">
         <v>0.02</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="11">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="11">
         <v>1.9E-3</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="11">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="11">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="11">
         <v>4.5000000000000003E-5</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="11">
         <v>1.4E-5</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="11">
         <v>4.6E-6</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="11">
         <v>2.0999999999999998E-6</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="11">
         <v>0.54</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="11">
         <v>0.53100000000000003</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="11">
         <v>0.52300000000000002</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="11">
         <v>0.51600000000000001</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="11">
         <v>0.505</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="11">
         <v>0.48499999999999999</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="11">
         <v>0.45300000000000001</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="11">
         <v>0.42699999999999999</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="11">
         <v>0.40200000000000002</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="11">
         <v>0.37</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="11">
         <v>0.32700000000000001</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="11">
         <v>0.313</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="4">
-        <v>1298</v>
-      </c>
-      <c r="D26" s="4">
-        <v>586</v>
-      </c>
-      <c r="E26" s="4">
-        <v>413</v>
-      </c>
-      <c r="F26" s="4">
-        <v>305</v>
-      </c>
-      <c r="G26" s="4">
-        <v>198</v>
-      </c>
-      <c r="H26" s="5">
-        <v>8.4</v>
-      </c>
-      <c r="I26" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="J26" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="K26" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="L26" s="5">
-        <v>1.4E-2</v>
-      </c>
-      <c r="M26" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N26" s="5">
-        <v>6.4000000000000005E-4</v>
-      </c>
-      <c r="O26" s="5">
-        <v>2.3000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="11">
+        <v>12.98</v>
+      </c>
+      <c r="D26" s="11">
+        <v>5.86</v>
+      </c>
+      <c r="E26" s="11">
+        <v>4.13</v>
+      </c>
+      <c r="F26" s="11">
+        <v>3.05</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1.98</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="J26" s="11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L26" s="11">
+        <v>1.4E-3</v>
+      </c>
+      <c r="M26" s="11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N26" s="11">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="O26" s="11">
+        <v>2.3E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="11">
         <v>0.42</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="11">
         <v>0.41699999999999998</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="11">
         <v>0.41099999999999998</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="11">
         <v>0.40300000000000002</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="11">
         <v>0.39</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="11">
         <v>0.35399999999999998</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="11">
         <v>0.22</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="11">
         <v>0.16800000000000001</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="11">
         <v>0.11700000000000001</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="11">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="11">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="11">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="11">
         <v>0.8</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="11">
         <v>0.21</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="11">
         <v>0.16</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="11">
         <v>0.11</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="11">
         <v>0.05</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="11">
         <v>1.2E-2</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="11">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="11">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="11">
         <v>5.3999999999999998E-5</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="11">
         <v>9.2E-6</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="11">
         <v>1.5E-6</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="11">
         <v>4.4999999999999998E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
       <c r="B29" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="11">
         <v>0.42</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="11">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="11">
         <v>0.41499999999999998</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="11">
         <v>0.41199999999999998</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="11">
         <v>0.40500000000000003</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="11">
         <v>0.38800000000000001</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="11">
         <v>0.34499999999999997</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="11">
         <v>0.3</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="11">
         <v>0.253</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="11">
         <v>0.19700000000000001</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="11">
         <v>0.16200000000000001</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="11">
         <v>0.13300000000000001</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="11">
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="4">
-        <v>8128</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1043</v>
-      </c>
-      <c r="E30" s="4">
-        <v>526</v>
-      </c>
-      <c r="F30" s="4">
-        <v>304</v>
-      </c>
-      <c r="G30" s="4">
-        <v>150</v>
-      </c>
-      <c r="H30" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="K30" s="5">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="L30" s="5">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="M30" s="5">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="N30" s="5">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="O30" s="5">
-        <v>1.1E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="11">
+        <v>81.28</v>
+      </c>
+      <c r="D30" s="11">
+        <v>10.43</v>
+      </c>
+      <c r="E30" s="11">
+        <v>5.26</v>
+      </c>
+      <c r="F30" s="11">
+        <v>3.04</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="I30" s="11">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J30" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K30" s="11">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="L30" s="11">
+        <v>5.8E-4</v>
+      </c>
+      <c r="M30" s="11">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="N30" s="11">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="O30" s="11">
+        <v>1.1E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="11">
         <v>0.53</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="11">
         <v>0.51300000000000001</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="11">
         <v>0.49299999999999999</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="11">
         <v>0.47299999999999998</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="11">
         <v>0.44400000000000001</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="11">
         <v>0.39200000000000002</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="11">
         <v>0.318</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="11">
         <v>0.26600000000000001</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="11">
         <v>0.222</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="11">
         <v>0.14599999999999999</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="11">
         <v>0.122</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="11">
         <v>0.108</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
       <c r="B32" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="11">
         <v>6.79</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="11">
         <v>1.22</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="11">
         <v>0.69</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="11">
         <v>0.44</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="11">
         <v>0.24</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="11">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="11">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="11">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="11">
         <v>1.4E-3</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="11">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="11">
         <v>6.3E-5</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="11">
         <v>1.7E-5</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="11">
         <v>6.7000000000000002E-6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
       <c r="B33" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="11">
         <v>0.8</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="11">
         <v>0.78200000000000003</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="11">
         <v>0.76</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="11">
         <v>0.73499999999999999</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="11">
         <v>0.69699999999999995</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="11">
         <v>0.622</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="11">
         <v>0.50600000000000001</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="11">
         <v>0.42199999999999999</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="11">
         <v>0.34899999999999998</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="11">
         <v>0.27</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="11">
         <v>0.223</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="11">
         <v>0.184</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="11">
         <v>0.161</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
       <c r="B34" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="11">
         <v>4.46</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="11">
         <v>0.23</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="11">
         <v>0.12</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="11">
         <v>0.04</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="11">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="11">
         <v>2E-3</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="11">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="11">
         <v>1E-4</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="11">
         <v>1.4E-5</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="11">
         <v>2.9000000000000002E-6</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="11">
         <v>6.1999999999999999E-7</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="11">
         <v>2.2000000000000001E-7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="11">
         <v>0.72</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="11">
         <v>0.70799999999999996</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="11">
         <v>0.69599999999999995</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="11">
         <v>0.68400000000000005</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="11">
         <v>0.66600000000000004</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="11">
         <v>0.63</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="11">
         <v>0.57199999999999995</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="11">
         <v>0.52400000000000002</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="11">
         <v>0.47799999999999998</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="11">
         <v>0.42199999999999999</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="11">
         <v>0.38300000000000001</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="11">
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="11">
         <v>6.67</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="11">
         <v>0.38</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="11">
         <v>0.2</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="11">
         <v>0.12</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="11">
         <v>0.06</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="11">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="11">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="11">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="11">
         <v>2.7999999999999998E-4</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="11">
         <v>4.3999999999999999E-5</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="11">
         <v>1.1E-5</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="11">
         <v>2.7E-6</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
       <c r="B37" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="11">
         <v>0.77</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="11">
         <v>0.755</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="11">
         <v>0.74</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="11">
         <v>0.72499999999999998</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="11">
         <v>0.70299999999999996</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="11">
         <v>0.66</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="11">
         <v>0.59099999999999997</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="11">
         <v>0.53600000000000003</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="11">
         <v>0.48499999999999999</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="11">
         <v>0.42199999999999999</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="11">
         <v>0.38</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="11">
         <v>0.34100000000000003</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="11">
         <v>0.317</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="11">
         <v>15.22</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="11">
         <v>11.17</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="11">
         <v>6.88</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="11">
         <v>3.64</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="11">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="11">
         <v>1.8E-3</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="11">
         <v>7.6000000000000004E-5</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="11">
         <v>3.1999999999999999E-6</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="11">
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="11">
         <v>2.1999999999999998E-9</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="11">
         <v>1.2E-9</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="11">
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="11">
         <v>0.36</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="11">
         <v>0.35399999999999998</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="11">
         <v>0.33200000000000002</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="11">
         <v>0.29599999999999999</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="11">
         <v>0.22900000000000001</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="11">
         <v>0.124</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="11">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="11">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="11">
         <v>1.6E-2</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="11">
         <v>1.2E-2</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="11">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="11">
         <v>0.01</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="11">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
       <c r="B40" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="11">
         <v>12.68</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="11">
         <v>7.6</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="11">
         <v>4.38</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="11">
         <v>2.35</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="11">
         <v>0.84</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="11">
         <v>0.1</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="11">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="11">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="11">
         <v>1.2E-5</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="11">
         <v>2.8999999999999998E-7</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="11">
         <v>1.7E-8</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="11">
         <v>1.0999999999999999E-9</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="11">
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
       <c r="B41" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="11">
         <v>0.38</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="11">
         <v>0.372</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="11">
         <v>0.35099999999999998</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="11">
         <v>0.32100000000000001</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="11">
         <v>0.26900000000000002</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="11">
         <v>0.17899999999999999</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="11">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="11">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="11">
         <v>0.04</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="11">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="11">
         <v>2.4E-2</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="11">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41" s="11">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
       <c r="B42" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="11">
         <v>10.87</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="11">
         <v>5.71</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="11">
         <v>3.48</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="11">
         <v>2.1</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="11">
         <v>0.96</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="11">
         <v>0.19</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="11">
         <v>1.2E-2</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="11">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="11">
         <v>1.1E-4</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="11">
         <v>4.7999999999999998E-6</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="11">
         <v>4.4999999999999998E-7</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="11">
         <v>4.1999999999999999E-8</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="11">
         <v>8.2999999999999999E-9</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
       <c r="B43" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="11">
         <v>0.34</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="11">
         <v>0.33400000000000002</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="11">
         <v>0.32100000000000001</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="11">
         <v>0.30299999999999999</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="11">
         <v>0.27100000000000002</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="11">
         <v>0.20599999999999999</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="11">
         <v>0.123</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="11">
         <v>0.08</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="11">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="11">
         <v>2.4E-2</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N43" s="11">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="11">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
       <c r="B44" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="4">
-        <v>986</v>
-      </c>
-      <c r="D44" s="4">
-        <v>393</v>
-      </c>
-      <c r="E44" s="4">
-        <v>234</v>
-      </c>
-      <c r="F44" s="4">
-        <v>144</v>
-      </c>
-      <c r="G44" s="4">
-        <v>71</v>
-      </c>
-      <c r="H44" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="I44" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="J44" s="5">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="K44" s="5">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="L44" s="5">
-        <v>1.7000000000000001E-4</v>
-      </c>
-      <c r="M44" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="N44" s="5">
-        <v>2.3999999999999999E-6</v>
-      </c>
-      <c r="O44" s="5">
-        <v>5.7999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" s="11">
+        <v>9.86</v>
+      </c>
+      <c r="D44" s="11">
+        <v>3.93</v>
+      </c>
+      <c r="E44" s="11">
+        <v>2.34</v>
+      </c>
+      <c r="F44" s="11">
+        <v>1.44</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="I44" s="11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J44" s="11">
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="K44" s="11">
+        <v>2.7E-4</v>
+      </c>
+      <c r="L44" s="11">
+        <v>1.7E-5</v>
+      </c>
+      <c r="M44" s="11">
+        <v>2.0000000000000002E-7</v>
+      </c>
+      <c r="N44" s="11">
+        <v>2.3999999999999998E-7</v>
+      </c>
+      <c r="O44" s="11">
+        <v>5.7999999999999997E-8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
       <c r="B45" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="11">
         <v>0.35</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="11">
         <v>0.34300000000000003</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="11">
         <v>0.33200000000000002</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="11">
         <v>0.318</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="11">
         <v>0.29499999999999998</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="11">
         <v>0.24399999999999999</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="11">
         <v>0.17</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="11">
         <v>0.124</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="11">
         <v>0.09</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="11">
         <v>0.06</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="11">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="11">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="11">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
       <c r="B46" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="11">
         <v>25</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="11">
         <v>10.08</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="11">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="11">
         <v>0.08</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="11">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="11">
         <v>4.3000000000000002E-5</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="11">
         <v>1.5999999999999999E-6</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="11">
         <v>5.9999999999999995E-8</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="11">
         <v>8.2999999999999999E-9</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="11">
         <v>4.1000000000000003E-9</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="11">
         <v>1.2E-9</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="11">
         <v>1.0999999999999999E-9</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="11">
         <v>0.32</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="11">
         <v>0.28699999999999998</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="11">
         <v>0.21199999999999999</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="11">
         <v>0.14699999999999999</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="11">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="11">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="11">
         <v>1.9E-2</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="11">
         <v>1.4E-2</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="11">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="11">
         <v>0.01</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="11">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="11">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="11">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="4">
-        <v>3392</v>
-      </c>
-      <c r="D48" s="4">
-        <v>687</v>
-      </c>
-      <c r="E48" s="4">
-        <v>392</v>
-      </c>
-      <c r="F48" s="4">
-        <v>246</v>
-      </c>
-      <c r="G48" s="4">
-        <v>133</v>
-      </c>
-      <c r="H48" s="5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I48" s="5">
-        <v>0.76</v>
-      </c>
-      <c r="J48" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="K48" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="L48" s="5">
-        <v>5.3E-3</v>
-      </c>
-      <c r="M48" s="5">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="N48" s="5">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="O48" s="5">
-        <v>8.8999999999999995E-5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" s="11">
+        <v>33.92</v>
+      </c>
+      <c r="D48" s="11">
+        <v>6.87</v>
+      </c>
+      <c r="E48" s="11">
+        <v>3.92</v>
+      </c>
+      <c r="F48" s="11">
+        <v>2.46</v>
+      </c>
+      <c r="G48" s="11">
+        <v>1.33</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="I48" s="11">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J48" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K48" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L48" s="11">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="M48" s="11">
+        <v>1.1999999999999999E-4</v>
+      </c>
+      <c r="N48" s="11">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="O48" s="11">
+        <v>8.8999999999999995E-6</v>
+      </c>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+    </row>
+    <row r="49" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="11">
         <v>0.33</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="11">
         <v>0.32300000000000001</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="11">
         <v>0.315</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="11">
         <v>0.30499999999999999</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="11">
         <v>0.25900000000000001</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="11">
         <v>0.21</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="11">
         <v>0.14399999999999999</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="11">
         <v>0.111</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="11">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N49" s="11">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O49" s="11">
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
       <c r="B50" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="11">
         <v>39.1</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="11">
         <v>3.16</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="11">
         <v>1.83</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="11">
         <v>1.19</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="11">
         <v>0.69</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="11">
         <v>0.26</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="11">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="11">
         <v>1.6E-2</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="11">
         <v>4.3E-3</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="11">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="11">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="N50" s="5">
+      <c r="N50" s="11">
         <v>4.6E-5</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O50" s="11">
         <v>1.8E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="11">
         <v>0.51</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="11">
         <v>0.504</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="11">
         <v>0.498</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="11">
         <v>0.49199999999999999</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="11">
         <v>0.48099999999999998</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="11">
         <v>0.45900000000000002</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="11">
         <v>0.41799999999999998</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="11">
         <v>0.38400000000000001</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="11">
         <v>0.34899999999999998</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="11">
         <v>0.30599999999999999</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="11">
         <v>0.27700000000000002</v>
       </c>
-      <c r="N51" s="5">
+      <c r="N51" s="11">
         <v>0.25</v>
       </c>
-      <c r="O51" s="5">
+      <c r="O51" s="11">
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
       <c r="B52" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="11">
         <v>9.08</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="11">
         <v>2.33</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="11">
         <v>1.39</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="11">
         <v>0.9</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="11">
         <v>0.49</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="11">
         <v>0.16</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="11">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="11">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="11">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="11">
         <v>1.2E-4</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="11">
         <v>2.3E-5</v>
       </c>
-      <c r="N52" s="5">
+      <c r="N52" s="11">
         <v>4.3000000000000003E-6</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52" s="11">
         <v>1.3999999999999999E-6</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="11">
         <v>0.47</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="11">
         <v>0.46200000000000002</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="11">
         <v>0.45100000000000001</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="11">
         <v>0.438</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="11">
         <v>0.41699999999999998</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="11">
         <v>0.372</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="11">
         <v>0.29599999999999999</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="11">
         <v>0.23899999999999999</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53" s="11">
         <v>0.191</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="11">
         <v>0.111</v>
       </c>
-      <c r="N53" s="5">
+      <c r="N53" s="11">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="O53" s="5">
+      <c r="O53" s="11">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="11">
         <v>2.23</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="11">
         <v>0.86</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="11">
         <v>0.41</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="11">
         <v>0.26</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="11">
         <v>0.1</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="11">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="11">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54" s="11">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="11">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="11">
         <v>3.1999999999999999E-5</v>
       </c>
-      <c r="N54" s="5">
+      <c r="N54" s="11">
         <v>6.7000000000000002E-6</v>
       </c>
-      <c r="O54" s="5">
+      <c r="O54" s="11">
         <v>2.3E-6</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="11">
         <v>0.46</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="11">
         <v>0.45500000000000002</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="11">
         <v>0.44800000000000001</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="11">
         <v>0.439</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="11">
         <v>0.42199999999999999</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="11">
         <v>0.38200000000000001</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55" s="11">
         <v>0.30299999999999999</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="11">
         <v>0.24</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K55" s="11">
         <v>0.185</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L55" s="11">
         <v>0.13</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="11">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="N55" s="5">
+      <c r="N55" s="11">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="O55" s="5">
+      <c r="O55" s="11">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
       <c r="B56" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="11">
         <v>2.12</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="11">
         <v>0.45</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="11">
         <v>0.2</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="11">
         <v>0.12</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="11">
         <v>0.05</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="11">
         <v>1.2E-2</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="11">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="11">
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="11">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="M56" s="5">
+      <c r="M56" s="11">
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="N56" s="5">
+      <c r="N56" s="11">
         <v>8.1000000000000004E-6</v>
       </c>
-      <c r="O56" s="5">
+      <c r="O56" s="11">
         <v>3.1E-6</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
       <c r="B57" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="11">
         <v>0.48</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="11">
         <v>0.47499999999999998</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="11">
         <v>0.46899999999999997</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="11">
         <v>0.46100000000000002</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="11">
         <v>0.44900000000000001</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="11">
         <v>0.41899999999999998</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="11">
         <v>0.36299999999999999</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="11">
         <v>0.315</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="11">
         <v>0.26900000000000002</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57" s="11">
         <v>0.216</v>
       </c>
-      <c r="M57" s="5">
+      <c r="M57" s="11">
         <v>0.183</v>
       </c>
-      <c r="N57" s="5">
+      <c r="N57" s="11">
         <v>0.155</v>
       </c>
-      <c r="O57" s="5">
+      <c r="O57" s="11">
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
       <c r="B58" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="11">
         <v>13.79</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="11">
         <v>0.79</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="11">
         <v>0.41</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="11">
         <v>0.25</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="11">
         <v>0.13</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="11">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="11">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="11">
         <v>2E-3</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58" s="11">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58" s="11">
         <v>7.2999999999999999E-5</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="11">
         <v>1.7E-5</v>
       </c>
-      <c r="N58" s="5">
+      <c r="N58" s="11">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="O58" s="5">
+      <c r="O58" s="11">
         <v>1.5E-6</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="11">
         <v>0.42</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="11">
         <v>0.41199999999999998</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="11">
         <v>0.40400000000000003</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="11">
         <v>0.39700000000000002</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="11">
         <v>0.38500000000000001</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="11">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59" s="11">
         <v>0.32500000000000001</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="11">
         <v>0.29499999999999998</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59" s="11">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59" s="11">
         <v>0.23300000000000001</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="11">
         <v>0.21</v>
       </c>
-      <c r="N59" s="5">
+      <c r="N59" s="11">
         <v>0.189</v>
       </c>
-      <c r="O59" s="5">
+      <c r="O59" s="11">
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="11">
         <v>1.02</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="11">
         <v>0.11</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="11">
         <v>0.05</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="11">
         <v>0.03</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="11">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I60" s="5">
+      <c r="I60" s="11">
         <v>3.8E-3</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="11">
         <v>1.4E-3</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60" s="11">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="11">
         <v>1E-4</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="11">
         <v>3.4E-5</v>
       </c>
-      <c r="N60" s="5">
+      <c r="N60" s="11">
         <v>1.1E-5</v>
       </c>
-      <c r="O60" s="5">
+      <c r="O60" s="11">
         <v>5.1000000000000003E-6</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="11">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="11">
         <v>0.55500000000000005</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="11">
         <v>0.54400000000000004</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="11">
         <v>0.53400000000000003</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="11">
         <v>0.51200000000000001</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61" s="11">
         <v>0.47</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="11">
         <v>0.43099999999999999</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="11">
         <v>0.39200000000000002</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L61" s="11">
         <v>0.34200000000000003</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="11">
         <v>0.308</v>
       </c>
-      <c r="N61" s="5">
+      <c r="N61" s="11">
         <v>0.27800000000000002</v>
       </c>
-      <c r="O61" s="5">
+      <c r="O61" s="11">
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="11">
         <v>4.37</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="11">
         <v>0.1</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="11">
         <v>0.05</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="11">
         <v>0.03</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="11">
         <v>0.02</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="11">
         <v>7.6E-3</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I62" s="11">
         <v>2E-3</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62" s="11">
         <v>6.6E-4</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K62" s="11">
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L62" s="11">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="11">
         <v>1.5E-5</v>
       </c>
-      <c r="N62" s="5">
+      <c r="N62" s="11">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="O62" s="5">
+      <c r="O62" s="11">
         <v>2.3E-6</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="11">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="11">
         <v>0.56299999999999994</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="11">
         <v>0.55600000000000005</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="11">
         <v>0.54</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="11">
         <v>0.52100000000000002</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63" s="11">
         <v>0.49</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="11">
         <v>0.46400000000000002</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63" s="11">
         <v>0.439</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63" s="11">
         <v>0.40600000000000003</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="11">
         <v>0.38200000000000001</v>
       </c>
-      <c r="N63" s="5">
+      <c r="N63" s="11">
         <v>0.36</v>
       </c>
-      <c r="O63" s="5">
+      <c r="O63" s="11">
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="4">
-        <v>151</v>
-      </c>
-      <c r="D64" s="4">
-        <v>128</v>
-      </c>
-      <c r="E64" s="4">
-        <v>115</v>
-      </c>
-      <c r="F64" s="4">
-        <v>103</v>
-      </c>
-      <c r="G64" s="4">
-        <v>86</v>
-      </c>
-      <c r="H64" s="5">
-        <v>5.6</v>
-      </c>
-      <c r="I64" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="J64" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="K64" s="5">
-        <v>6.3E-2</v>
-      </c>
-      <c r="L64" s="5">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="M64" s="5">
-        <v>4.0999999999999999E-4</v>
-      </c>
-      <c r="N64" s="5">
-        <v>4.3000000000000002E-5</v>
-      </c>
-      <c r="O64" s="5">
-        <v>9.3999999999999998E-6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" s="11">
+        <v>1.51</v>
+      </c>
+      <c r="D64" s="11">
+        <v>1.28</v>
+      </c>
+      <c r="E64" s="11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F64" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="G64" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="I64" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="J64" s="11">
+        <v>4.1999999999999996E-2</v>
+      </c>
+      <c r="K64" s="11">
+        <v>6.3E-3</v>
+      </c>
+      <c r="L64" s="11">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="M64" s="11">
+        <v>4.1E-5</v>
+      </c>
+      <c r="N64" s="11">
+        <v>4.3000000000000003E-6</v>
+      </c>
+      <c r="O64" s="11">
+        <v>9.4E-7</v>
+      </c>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+    </row>
+    <row r="65" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="11">
         <v>0.38100000000000001</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="11">
         <v>0.38</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="11">
         <v>0.379</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="11">
         <v>0.377</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="11">
         <v>0.374</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="11">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65" s="11">
         <v>0.313</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="11">
         <v>0.24199999999999999</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65" s="11">
         <v>0.16700000000000001</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65" s="11">
         <v>9.4E-2</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="11">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="N65" s="5">
+      <c r="N65" s="11">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="O65" s="5">
+      <c r="O65" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="11">
         <v>3.7</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="11">
         <v>0.74</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="11">
         <v>0.53</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="11">
         <v>0.32</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="11">
         <v>0.13</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="11">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66" s="11">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66" s="11">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="11">
         <v>4.8999999999999998E-5</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="11">
         <v>6.9E-6</v>
       </c>
-      <c r="N66" s="5">
+      <c r="N66" s="11">
         <v>9.5000000000000001E-7</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O66" s="11">
         <v>2.4999999999999999E-7</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="11">
         <v>0.41</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="11">
         <v>0.40699999999999997</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="11">
         <v>0.40300000000000002</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="11">
         <v>0.39800000000000002</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="11">
         <v>0.38900000000000001</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="11">
         <v>0.36699999999999999</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I67" s="11">
         <v>0.318</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" s="11">
         <v>0.27300000000000002</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="11">
         <v>0.22900000000000001</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67" s="11">
         <v>0.17899999999999999</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="11">
         <v>0.14799999999999999</v>
       </c>
-      <c r="N67" s="5">
+      <c r="N67" s="11">
         <v>0.122</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O67" s="11">
         <v>0.108</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="11">
         <v>1.07</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="11">
         <v>0.37</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="11">
         <v>0.24</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="11">
         <v>0.17</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="11">
         <v>0.1</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="11">
         <v>0.04</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I68" s="11">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J68" s="11">
         <v>1.9E-3</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="11">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L68" s="11">
         <v>5.8E-5</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="11">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="N68" s="5">
+      <c r="N68" s="11">
         <v>2.7E-6</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O68" s="11">
         <v>9.5000000000000001E-7</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="11">
         <v>0.89</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="11">
         <v>0.88</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="11">
         <v>0.86399999999999999</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="11">
         <v>0.84499999999999997</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="11">
         <v>0.81200000000000006</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="11">
         <v>0.73199999999999998</v>
       </c>
-      <c r="I69" s="5">
+      <c r="I69" s="11">
         <v>0.58399999999999996</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69" s="11">
         <v>0.46800000000000003</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="11">
         <v>0.36599999999999999</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L69" s="11">
         <v>0.26200000000000001</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="11">
         <v>0.20200000000000001</v>
       </c>
-      <c r="N69" s="5">
+      <c r="N69" s="11">
         <v>0.156</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69" s="11">
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="11">
         <v>2.93</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="11">
         <v>0.6</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="11">
         <v>0.36</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="11">
         <v>0.24</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="11">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="I70" s="5">
+      <c r="I70" s="11">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70" s="11">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="11">
         <v>6.6E-4</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70" s="11">
         <v>9.7999999999999997E-5</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="11">
         <v>2.3E-5</v>
       </c>
-      <c r="N70" s="5">
+      <c r="N70" s="11">
         <v>5.3000000000000001E-6</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O70" s="11">
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="11">
         <v>0.86</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="11">
         <v>0.84799999999999998</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="11">
         <v>0.83199999999999996</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="11">
         <v>0.81399999999999995</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="11">
         <v>0.78400000000000003</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="11">
         <v>0.72</v>
       </c>
-      <c r="I71" s="5">
+      <c r="I71" s="11">
         <v>0.60499999999999998</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="11">
         <v>0.51500000000000001</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="11">
         <v>0.432</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71" s="11">
         <v>0.33900000000000002</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="11">
         <v>0.28199999999999997</v>
       </c>
-      <c r="N71" s="5">
+      <c r="N71" s="11">
         <v>0.23499999999999999</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O71" s="11">
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="4">
-        <v>3445</v>
-      </c>
-      <c r="D72" s="4">
-        <v>815</v>
-      </c>
-      <c r="E72" s="4">
-        <v>486</v>
-      </c>
-      <c r="F72" s="4">
-        <v>316</v>
-      </c>
-      <c r="G72" s="4">
-        <v>176</v>
-      </c>
-      <c r="H72" s="4">
-        <v>6</v>
-      </c>
-      <c r="I72" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J72" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="K72" s="5">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="L72" s="5">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="M72" s="5">
-        <v>1.4E-3</v>
-      </c>
-      <c r="N72" s="5">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="O72" s="5">
-        <v>1.1E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C72" s="11">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="D72" s="11">
+        <v>8.15</v>
+      </c>
+      <c r="E72" s="11">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F72" s="11">
+        <v>3.16</v>
+      </c>
+      <c r="G72" s="11">
+        <v>1.76</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="I72" s="11">
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="J72" s="11">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K72" s="11">
+        <v>5.3E-3</v>
+      </c>
+      <c r="L72" s="11">
+        <v>6.8999999999999997E-4</v>
+      </c>
+      <c r="M72" s="11">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="N72" s="11">
+        <v>2.9999999999999997E-5</v>
+      </c>
+      <c r="O72" s="11">
+        <v>1.1E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="11">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="11">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="11">
         <v>0.54800000000000004</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="11">
         <v>0.53300000000000003</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="11">
         <v>0.50800000000000001</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73" s="11">
         <v>0.45600000000000002</v>
       </c>
-      <c r="I73" s="5">
+      <c r="I73" s="11">
         <v>0.36899999999999999</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J73" s="11">
         <v>0.30499999999999999</v>
       </c>
-      <c r="K73" s="5">
+      <c r="K73" s="11">
         <v>0.248</v>
       </c>
-      <c r="L73" s="5">
+      <c r="L73" s="11">
         <v>0.188</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="11">
         <v>0.153</v>
       </c>
-      <c r="N73" s="5">
+      <c r="N73" s="11">
         <v>0.124</v>
       </c>
-      <c r="O73" s="5">
+      <c r="O73" s="11">
         <v>0.108</v>
       </c>
     </row>
@@ -6816,17 +6848,17 @@
       <selection sqref="A1:N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="13.578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6870,7 +6902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -6908,7 +6940,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -6946,7 +6978,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -6984,7 +7016,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -7022,7 +7054,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -7054,7 +7086,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7092,7 +7124,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -7121,7 +7153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -7150,7 +7182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -7179,7 +7211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -7208,7 +7240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -7237,7 +7269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -7266,7 +7298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
@@ -7295,7 +7327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -7324,7 +7356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -7353,7 +7385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -7382,7 +7414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -7411,7 +7443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7440,7 +7472,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -7478,7 +7510,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -7516,7 +7548,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -7554,7 +7586,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -7592,7 +7624,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -7624,7 +7656,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -7662,7 +7694,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -7700,7 +7732,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -7729,7 +7761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -7758,7 +7790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -7787,7 +7819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -7816,7 +7848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -7845,7 +7877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -7874,7 +7906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>65</v>
       </c>
@@ -7903,7 +7935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -7932,7 +7964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
@@ -7955,7 +7987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -7978,7 +8010,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
